--- a/exel1.xlsx
+++ b/exel1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="897">
   <si>
     <t>Город</t>
   </si>
@@ -928,177 +928,6 @@
     <t>armavir.kupit-shkaf.ru</t>
   </si>
   <si>
-    <t>st-petersburg</t>
-  </si>
-  <si>
-    <t>novosibirsk</t>
-  </si>
-  <si>
-    <t>yekaterinburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>nizhny-novgorod</t>
-  </si>
-  <si>
-    <t>kazan</t>
-  </si>
-  <si>
-    <t>chelyabinsk</t>
-  </si>
-  <si>
-    <t>omsk</t>
-  </si>
-  <si>
-    <t>samara</t>
-  </si>
-  <si>
-    <t>ufa</t>
-  </si>
-  <si>
-    <t>krasnoyarsk</t>
-  </si>
-  <si>
-    <t>voronezh</t>
-  </si>
-  <si>
-    <t>perm</t>
-  </si>
-  <si>
-    <t>volgograd</t>
-  </si>
-  <si>
-    <t>krasnodar</t>
-  </si>
-  <si>
-    <t>saratov</t>
-  </si>
-  <si>
-    <t>tyumen</t>
-  </si>
-  <si>
-    <t>tolyatti</t>
-  </si>
-  <si>
-    <t>izhevsk</t>
-  </si>
-  <si>
-    <t>barnaul</t>
-  </si>
-  <si>
-    <t>ulyanovsk</t>
-  </si>
-  <si>
-    <t>irkutsk</t>
-  </si>
-  <si>
-    <t>khabarovsk</t>
-  </si>
-  <si>
-    <t>yaroslavl</t>
-  </si>
-  <si>
-    <t>vladivostok</t>
-  </si>
-  <si>
-    <t>makhachkala</t>
-  </si>
-  <si>
-    <t>tomsk</t>
-  </si>
-  <si>
-    <t>orenburg</t>
-  </si>
-  <si>
-    <t>kemerovo</t>
-  </si>
-  <si>
-    <t>novokuznetsk</t>
-  </si>
-  <si>
-    <t>ryazan</t>
-  </si>
-  <si>
-    <t>astrakhan</t>
-  </si>
-  <si>
-    <t>naberezhnye-chelny</t>
-  </si>
-  <si>
-    <t>penza</t>
-  </si>
-  <si>
-    <t>kirov</t>
-  </si>
-  <si>
-    <t>lipetsk</t>
-  </si>
-  <si>
-    <t>cheboksary</t>
-  </si>
-  <si>
-    <t>kaliningrad</t>
-  </si>
-  <si>
-    <t>tula</t>
-  </si>
-  <si>
-    <t>balashikha</t>
-  </si>
-  <si>
-    <t>kursk</t>
-  </si>
-  <si>
-    <t>sevastopol</t>
-  </si>
-  <si>
-    <t>sochi</t>
-  </si>
-  <si>
-    <t>stavropol</t>
-  </si>
-  <si>
-    <t>ulan-ude</t>
-  </si>
-  <si>
-    <t>tver</t>
-  </si>
-  <si>
-    <t>magnitogorsk</t>
-  </si>
-  <si>
-    <t>bryansk</t>
-  </si>
-  <si>
-    <t>ivanovo</t>
-  </si>
-  <si>
-    <t>belgorod</t>
-  </si>
-  <si>
-    <t>surgut</t>
-  </si>
-  <si>
-    <t>vladimir</t>
-  </si>
-  <si>
-    <t>nizhny-tagil</t>
-  </si>
-  <si>
-    <t>arkhangelsk</t>
-  </si>
-  <si>
-    <t>chita</t>
-  </si>
-  <si>
-    <t>simferopol</t>
-  </si>
-  <si>
-    <t>kaluga</t>
-  </si>
-  <si>
     <t>smolensk</t>
   </si>
   <si>
@@ -1279,9 +1108,6 @@
     <t>по всему  Новосибирску и области</t>
   </si>
   <si>
-    <t>по всему  Екатеринбургу и областиот Екатеринбурга</t>
-  </si>
-  <si>
     <t xml:space="preserve">по всему Санкт-Петербургу и   области </t>
   </si>
   <si>
@@ -1348,9 +1174,6 @@
     <t>от Уфы</t>
   </si>
   <si>
-    <t>по всему  Красноярску и области</t>
-  </si>
-  <si>
     <t>от Красноярска</t>
   </si>
   <si>
@@ -1363,9 +1186,6 @@
     <t>в Перми</t>
   </si>
   <si>
-    <t>по всей  Перми и области</t>
-  </si>
-  <si>
     <t>от Перми</t>
   </si>
   <si>
@@ -1375,9 +1195,6 @@
     <t>от Волгограда</t>
   </si>
   <si>
-    <t>по всему  Краснодаре и области</t>
-  </si>
-  <si>
     <t>от Краснодара</t>
   </si>
   <si>
@@ -1402,15 +1219,9 @@
     <t>от Тольятти</t>
   </si>
   <si>
-    <t>по всему  Ижевску и области</t>
-  </si>
-  <si>
     <t>от Ижевска</t>
   </si>
   <si>
-    <t>по всему  Барнаулу и области</t>
-  </si>
-  <si>
     <t>от  Барнаула</t>
   </si>
   <si>
@@ -1435,9 +1246,6 @@
     <t>в Кирове</t>
   </si>
   <si>
-    <t>по всему  Хабаровску и области</t>
-  </si>
-  <si>
     <t>от Хабаровска</t>
   </si>
   <si>
@@ -1459,9 +1267,6 @@
     <t>в Калининграде</t>
   </si>
   <si>
-    <t>по всему  Владивостоку и области</t>
-  </si>
-  <si>
     <t>от Владивостока</t>
   </si>
   <si>
@@ -1474,9 +1279,6 @@
     <t>от Тулы</t>
   </si>
   <si>
-    <t>по всей  Махачкале и области</t>
-  </si>
-  <si>
     <t>от Томска</t>
   </si>
   <si>
@@ -1627,9 +1429,6 @@
     <t>в Набережных Челнах</t>
   </si>
   <si>
-    <t>по всем   Набережным Челнам и области</t>
-  </si>
-  <si>
     <t>от  Набережных Челнов</t>
   </si>
   <si>
@@ -1654,9 +1453,6 @@
     <t>в Чебоксаре</t>
   </si>
   <si>
-    <t>в  Чебоксаре и области</t>
-  </si>
-  <si>
     <t>от Чебоксар</t>
   </si>
   <si>
@@ -1690,36 +1486,24 @@
     <t>в Севастополе</t>
   </si>
   <si>
-    <t>по всему  Севастополу и области</t>
-  </si>
-  <si>
     <t>от Севастополя</t>
   </si>
   <si>
     <t>в Сочи</t>
   </si>
   <si>
-    <t>по всему  Сочи и области</t>
-  </si>
-  <si>
     <t>от Сочи</t>
   </si>
   <si>
     <t>в Ставрополе</t>
   </si>
   <si>
-    <t>по всему  Ставрополю и области</t>
-  </si>
-  <si>
     <t>от Ставрополя</t>
   </si>
   <si>
     <t>в Улан-Уде</t>
   </si>
   <si>
-    <t>по всему  Улан-Уде и области</t>
-  </si>
-  <si>
     <t>от Улан-Уде</t>
   </si>
   <si>
@@ -1789,18 +1573,12 @@
     <t>в Чите</t>
   </si>
   <si>
-    <t>по всей  Чите и области</t>
-  </si>
-  <si>
     <t>от Читы</t>
   </si>
   <si>
     <t>в Симферополе</t>
   </si>
   <si>
-    <t>по всему  Симферополю и области</t>
-  </si>
-  <si>
     <t>от Симферополя</t>
   </si>
   <si>
@@ -2708,6 +2486,225 @@
   </si>
   <si>
     <t>http://xn--80aagyrxe.xn--b1ademal9afwh6h.xn--p1ai</t>
+  </si>
+  <si>
+    <t>в Москве и области</t>
+  </si>
+  <si>
+    <t>в Новосибирске и области</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в Санкт-Петербурге и   области </t>
+  </si>
+  <si>
+    <t>по всему  Екатеринбургу и области</t>
+  </si>
+  <si>
+    <t>от Екатеринбурга</t>
+  </si>
+  <si>
+    <t>в  Екатеринбурге и области</t>
+  </si>
+  <si>
+    <t>в  Нижний Новгороде и области</t>
+  </si>
+  <si>
+    <t>в  Челябинске и области</t>
+  </si>
+  <si>
+    <t>в  Омске и области</t>
+  </si>
+  <si>
+    <t>в  Самаре и области</t>
+  </si>
+  <si>
+    <t>в Ростову-на-Дону и области</t>
+  </si>
+  <si>
+    <t>в Уфе и республике</t>
+  </si>
+  <si>
+    <t>в  Красноярске и крае</t>
+  </si>
+  <si>
+    <t>в  Воронеже и области</t>
+  </si>
+  <si>
+    <t>в  Перми и крае</t>
+  </si>
+  <si>
+    <t>в  Волгограде и области</t>
+  </si>
+  <si>
+    <t>по всему  Краснодару и краю</t>
+  </si>
+  <si>
+    <t>по всей  Перми и краю</t>
+  </si>
+  <si>
+    <t>по всему  Красноярску и краю</t>
+  </si>
+  <si>
+    <t>в  Краснодаре и крае</t>
+  </si>
+  <si>
+    <t>в  Саратове и области</t>
+  </si>
+  <si>
+    <t>в  Тюмени и области</t>
+  </si>
+  <si>
+    <t>в  Тольятти и области</t>
+  </si>
+  <si>
+    <t>по всему  Ижевску и республике</t>
+  </si>
+  <si>
+    <t>в  Ижевске и республике</t>
+  </si>
+  <si>
+    <t>по всему  Барнаулу и краю</t>
+  </si>
+  <si>
+    <t>в  Барнауле и крае</t>
+  </si>
+  <si>
+    <t>в  Ульяновске и области</t>
+  </si>
+  <si>
+    <t>в  Иркутске и области</t>
+  </si>
+  <si>
+    <t>по всему  Хабаровску и краю</t>
+  </si>
+  <si>
+    <t>в Хабаровску и крае</t>
+  </si>
+  <si>
+    <t>в  Ярославле и области</t>
+  </si>
+  <si>
+    <t>по всему  Владивостоку и краю</t>
+  </si>
+  <si>
+    <t>в  Владивостоке и крае</t>
+  </si>
+  <si>
+    <t>по всей  Махачкале и республике</t>
+  </si>
+  <si>
+    <t>в  Махачкале и республике</t>
+  </si>
+  <si>
+    <t>в  Томске и области</t>
+  </si>
+  <si>
+    <t>в  Оренбурге и области</t>
+  </si>
+  <si>
+    <t>в  Кемерово и области</t>
+  </si>
+  <si>
+    <t>в  Новокузнецке и области</t>
+  </si>
+  <si>
+    <t>в  Рязане и области</t>
+  </si>
+  <si>
+    <t>в  Астрахане и области</t>
+  </si>
+  <si>
+    <t>в   Набережных Челнах и республике</t>
+  </si>
+  <si>
+    <t>по всем   Набережным Челнам и республике</t>
+  </si>
+  <si>
+    <t>в  Пензе и области</t>
+  </si>
+  <si>
+    <t>в  Кирове и области</t>
+  </si>
+  <si>
+    <t>в Липецке и области</t>
+  </si>
+  <si>
+    <t>в  Чебоксаре и республике</t>
+  </si>
+  <si>
+    <t>в  Калининграде и области</t>
+  </si>
+  <si>
+    <t>в Туле и области</t>
+  </si>
+  <si>
+    <t>в  Балашихе и области</t>
+  </si>
+  <si>
+    <t>в  Курске и области</t>
+  </si>
+  <si>
+    <t>в  Севастополе</t>
+  </si>
+  <si>
+    <t>по всему  Сочи и краю</t>
+  </si>
+  <si>
+    <t>в  Сочи и крае</t>
+  </si>
+  <si>
+    <t>по всему  Ставрополю и краю</t>
+  </si>
+  <si>
+    <t>в  Ставрополе и крае</t>
+  </si>
+  <si>
+    <t>по всему  Улан-Уде и республике</t>
+  </si>
+  <si>
+    <t>в  Улан-Уде и республике</t>
+  </si>
+  <si>
+    <t>в Твери и области</t>
+  </si>
+  <si>
+    <t>в  Магнитогорске и области</t>
+  </si>
+  <si>
+    <t>в  Брянске и области</t>
+  </si>
+  <si>
+    <t>в  Иванове и области</t>
+  </si>
+  <si>
+    <t>в  Белгороде и области</t>
+  </si>
+  <si>
+    <t>в Сургуте и области</t>
+  </si>
+  <si>
+    <t>в Владимире и области</t>
+  </si>
+  <si>
+    <t>в  Нижнем Тагиле и области</t>
+  </si>
+  <si>
+    <t>в  Архангельске и области</t>
+  </si>
+  <si>
+    <t>по всей  Чите и краю</t>
+  </si>
+  <si>
+    <t>в Чите и крае</t>
+  </si>
+  <si>
+    <t>по всему  Симферополю и республике</t>
+  </si>
+  <si>
+    <t>в  Симферополе и республике</t>
+  </si>
+  <si>
+    <t>в  Калуге и области</t>
   </si>
 </sst>
 </file>
@@ -3083,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H101" sqref="H3:H101"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,7 +3091,7 @@
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="38.5703125" customWidth="1"/>
   </cols>
@@ -3113,13 +3110,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="F1" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="G1" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -3133,16 +3130,16 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>824</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="F2" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3156,22 +3153,22 @@
         <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>826</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="G3" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="H3" t="s">
-        <v>706</v>
+        <v>632</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>700</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3185,22 +3182,22 @@
         <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>825</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="F4" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="G4" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="H4" t="s">
-        <v>707</v>
+        <v>633</v>
       </c>
       <c r="I4" t="s">
-        <v>701</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3214,19 +3211,22 @@
         <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>829</v>
       </c>
       <c r="E5" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
-        <v>421</v>
+        <v>827</v>
+      </c>
+      <c r="G5" t="s">
+        <v>828</v>
       </c>
       <c r="H5" t="s">
-        <v>708</v>
+        <v>634</v>
       </c>
       <c r="I5" t="s">
-        <v>702</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3240,22 +3240,22 @@
         <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>830</v>
       </c>
       <c r="E6" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="F6" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="H6" t="s">
-        <v>709</v>
+        <v>635</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>703</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3269,22 +3269,22 @@
         <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="E7" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="G7" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="H7" t="s">
-        <v>710</v>
+        <v>636</v>
       </c>
       <c r="I7" t="s">
-        <v>704</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3298,22 +3298,22 @@
         <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>831</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="G8" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="H8" t="s">
-        <v>711</v>
+        <v>637</v>
       </c>
       <c r="I8" t="s">
-        <v>705</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3327,22 +3327,22 @@
         <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>832</v>
       </c>
       <c r="E9" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="G9" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="H9" t="s">
-        <v>712</v>
+        <v>638</v>
       </c>
       <c r="I9" t="s">
-        <v>713</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3356,22 +3356,22 @@
         <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>833</v>
       </c>
       <c r="E10" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="F10" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="G10" t="s">
-        <v>697</v>
+        <v>623</v>
       </c>
       <c r="H10" t="s">
-        <v>714</v>
+        <v>640</v>
       </c>
       <c r="I10" t="s">
-        <v>715</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3385,22 +3385,22 @@
         <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>834</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="F11" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="G11" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="H11" t="s">
-        <v>716</v>
+        <v>642</v>
       </c>
       <c r="I11" t="s">
-        <v>717</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3414,22 +3414,22 @@
         <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>835</v>
       </c>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="F12" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="G12" t="s">
-        <v>443</v>
+        <v>385</v>
       </c>
       <c r="H12" t="s">
-        <v>718</v>
+        <v>644</v>
       </c>
       <c r="I12" t="s">
-        <v>719</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3443,22 +3443,22 @@
         <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>836</v>
       </c>
       <c r="E13" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F13" t="s">
-        <v>444</v>
+        <v>842</v>
       </c>
       <c r="G13" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="H13" t="s">
-        <v>720</v>
+        <v>646</v>
       </c>
       <c r="I13" t="s">
-        <v>721</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3472,22 +3472,22 @@
         <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>837</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="F14" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
       <c r="G14" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="H14" t="s">
-        <v>722</v>
+        <v>648</v>
       </c>
       <c r="I14" t="s">
-        <v>723</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3501,22 +3501,22 @@
         <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>838</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="F15" t="s">
-        <v>449</v>
+        <v>841</v>
       </c>
       <c r="G15" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="H15" t="s">
-        <v>724</v>
+        <v>650</v>
       </c>
       <c r="I15" t="s">
-        <v>725</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3530,22 +3530,22 @@
         <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>839</v>
       </c>
       <c r="E16" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="G16" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="H16" t="s">
-        <v>726</v>
+        <v>652</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>727</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3559,22 +3559,22 @@
         <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
+        <v>843</v>
       </c>
       <c r="E17" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F17" t="s">
-        <v>453</v>
+        <v>840</v>
       </c>
       <c r="G17" t="s">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="H17" t="s">
-        <v>728</v>
+        <v>654</v>
       </c>
       <c r="I17" t="s">
-        <v>729</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3588,22 +3588,22 @@
         <v>219</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>844</v>
       </c>
       <c r="E18" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F18" t="s">
-        <v>455</v>
+        <v>394</v>
       </c>
       <c r="G18" t="s">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="H18" t="s">
-        <v>730</v>
+        <v>656</v>
       </c>
       <c r="I18" t="s">
-        <v>731</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3617,22 +3617,22 @@
         <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>845</v>
       </c>
       <c r="E19" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="F19" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="G19" t="s">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="H19" t="s">
-        <v>732</v>
+        <v>658</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>733</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3646,22 +3646,22 @@
         <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>321</v>
+        <v>846</v>
       </c>
       <c r="E20" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
       <c r="F20" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="G20" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>734</v>
+        <v>660</v>
       </c>
       <c r="I20" t="s">
-        <v>735</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3675,22 +3675,22 @@
         <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>322</v>
+        <v>848</v>
       </c>
       <c r="E21" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="F21" t="s">
-        <v>462</v>
+        <v>847</v>
       </c>
       <c r="G21" t="s">
-        <v>463</v>
+        <v>401</v>
       </c>
       <c r="H21" t="s">
-        <v>736</v>
+        <v>662</v>
       </c>
       <c r="I21" t="s">
-        <v>737</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,22 +3704,22 @@
         <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>323</v>
+        <v>850</v>
       </c>
       <c r="E22" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="F22" t="s">
-        <v>464</v>
+        <v>849</v>
       </c>
       <c r="G22" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="H22" t="s">
-        <v>738</v>
+        <v>664</v>
       </c>
       <c r="I22" t="s">
-        <v>739</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3733,22 +3733,22 @@
         <v>224</v>
       </c>
       <c r="D23" t="s">
-        <v>324</v>
+        <v>851</v>
       </c>
       <c r="E23" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="F23" t="s">
-        <v>466</v>
+        <v>403</v>
       </c>
       <c r="G23" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="H23" t="s">
-        <v>740</v>
+        <v>666</v>
       </c>
       <c r="I23" t="s">
-        <v>741</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3762,22 +3762,22 @@
         <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>325</v>
+        <v>852</v>
       </c>
       <c r="E24" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="F24" t="s">
-        <v>470</v>
+        <v>407</v>
       </c>
       <c r="G24" t="s">
-        <v>471</v>
+        <v>408</v>
       </c>
       <c r="H24" t="s">
-        <v>742</v>
+        <v>668</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>743</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3791,22 +3791,22 @@
         <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>326</v>
+        <v>854</v>
       </c>
       <c r="E25" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="F25" t="s">
-        <v>473</v>
+        <v>853</v>
       </c>
       <c r="G25" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="H25" t="s">
-        <v>744</v>
+        <v>670</v>
       </c>
       <c r="I25" t="s">
-        <v>745</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3820,22 +3820,22 @@
         <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>327</v>
+        <v>855</v>
       </c>
       <c r="E26" t="s">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="F26" t="s">
-        <v>476</v>
+        <v>412</v>
       </c>
       <c r="G26" t="s">
-        <v>477</v>
+        <v>413</v>
       </c>
       <c r="H26" t="s">
-        <v>746</v>
+        <v>672</v>
       </c>
       <c r="I26" t="s">
-        <v>747</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3849,22 +3849,22 @@
         <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>857</v>
       </c>
       <c r="E27" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="F27" t="s">
-        <v>481</v>
+        <v>856</v>
       </c>
       <c r="G27" t="s">
-        <v>482</v>
+        <v>417</v>
       </c>
       <c r="H27" t="s">
-        <v>748</v>
+        <v>674</v>
       </c>
       <c r="I27" t="s">
-        <v>749</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3878,22 +3878,22 @@
         <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>329</v>
+        <v>859</v>
       </c>
       <c r="E28" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="F28" t="s">
-        <v>486</v>
+        <v>858</v>
       </c>
       <c r="G28" t="s">
-        <v>483</v>
+        <v>418</v>
       </c>
       <c r="H28" t="s">
-        <v>750</v>
+        <v>676</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>751</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3907,22 +3907,22 @@
         <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>330</v>
+        <v>860</v>
       </c>
       <c r="E29" t="s">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="F29" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="G29" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>752</v>
+        <v>678</v>
       </c>
       <c r="I29" t="s">
-        <v>753</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3936,22 +3936,22 @@
         <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>331</v>
+        <v>861</v>
       </c>
       <c r="E30" t="s">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="F30" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="G30" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="H30" t="s">
-        <v>754</v>
+        <v>680</v>
       </c>
       <c r="I30" t="s">
-        <v>755</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3965,22 +3965,22 @@
         <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>332</v>
+        <v>862</v>
       </c>
       <c r="E31" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="F31" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="G31" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>756</v>
+        <v>682</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>757</v>
+        <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,22 +3994,22 @@
         <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>863</v>
       </c>
       <c r="E32" t="s">
-        <v>478</v>
+        <v>414</v>
       </c>
       <c r="F32" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="G32" t="s">
-        <v>488</v>
+        <v>422</v>
       </c>
       <c r="H32" t="s">
-        <v>758</v>
+        <v>684</v>
       </c>
       <c r="I32" t="s">
-        <v>759</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,22 +4023,22 @@
         <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>334</v>
+        <v>864</v>
       </c>
       <c r="E33" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="F33" t="s">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="G33" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="H33" t="s">
-        <v>760</v>
+        <v>686</v>
       </c>
       <c r="I33" t="s">
-        <v>761</v>
+        <v>687</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4052,22 +4052,22 @@
         <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>335</v>
+        <v>865</v>
       </c>
       <c r="E34" t="s">
-        <v>698</v>
+        <v>624</v>
       </c>
       <c r="F34" t="s">
-        <v>699</v>
+        <v>625</v>
       </c>
       <c r="G34" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
       <c r="H34" t="s">
-        <v>762</v>
+        <v>688</v>
       </c>
       <c r="I34" t="s">
-        <v>763</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4081,22 +4081,22 @@
         <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>336</v>
+        <v>866</v>
       </c>
       <c r="E35" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
       <c r="F35" t="s">
-        <v>537</v>
+        <v>867</v>
       </c>
       <c r="G35" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="H35" t="s">
-        <v>764</v>
+        <v>690</v>
       </c>
       <c r="I35" t="s">
-        <v>765</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4110,22 +4110,22 @@
         <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>337</v>
+        <v>868</v>
       </c>
       <c r="E36" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
       <c r="F36" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
       <c r="G36" t="s">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="H36" t="s">
-        <v>766</v>
+        <v>692</v>
       </c>
       <c r="I36" t="s">
-        <v>768</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4139,22 +4139,22 @@
         <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>338</v>
+        <v>869</v>
       </c>
       <c r="E37" t="s">
-        <v>472</v>
+        <v>409</v>
       </c>
       <c r="F37" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="G37" t="s">
-        <v>542</v>
+        <v>475</v>
       </c>
       <c r="H37" t="s">
-        <v>767</v>
+        <v>693</v>
       </c>
       <c r="I37" t="s">
-        <v>769</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4168,22 +4168,22 @@
         <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>339</v>
+        <v>870</v>
       </c>
       <c r="E38" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="F38" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="G38" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="H38" t="s">
-        <v>770</v>
+        <v>696</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>771</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4197,22 +4197,22 @@
         <v>240</v>
       </c>
       <c r="D39" t="s">
-        <v>340</v>
+        <v>871</v>
       </c>
       <c r="E39" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="F39" t="s">
-        <v>546</v>
+        <v>871</v>
       </c>
       <c r="G39" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="H39" t="s">
-        <v>773</v>
+        <v>699</v>
       </c>
       <c r="I39" t="s">
-        <v>772</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4226,22 +4226,22 @@
         <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>341</v>
+        <v>872</v>
       </c>
       <c r="E40" t="s">
+        <v>416</v>
+      </c>
+      <c r="F40" t="s">
         <v>480</v>
       </c>
-      <c r="F40" t="s">
-        <v>548</v>
-      </c>
       <c r="G40" t="s">
-        <v>549</v>
+        <v>481</v>
       </c>
       <c r="H40" t="s">
-        <v>774</v>
+        <v>700</v>
       </c>
       <c r="I40" t="s">
-        <v>775</v>
+        <v>701</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4255,22 +4255,22 @@
         <v>242</v>
       </c>
       <c r="D41" t="s">
-        <v>342</v>
+        <v>873</v>
       </c>
       <c r="E41" t="s">
-        <v>550</v>
+        <v>482</v>
       </c>
       <c r="F41" t="s">
-        <v>551</v>
+        <v>483</v>
       </c>
       <c r="G41" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="H41" t="s">
-        <v>776</v>
+        <v>702</v>
       </c>
       <c r="I41" t="s">
-        <v>777</v>
+        <v>703</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4284,22 +4284,22 @@
         <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>343</v>
+        <v>874</v>
       </c>
       <c r="E42" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="F42" t="s">
-        <v>553</v>
+        <v>485</v>
       </c>
       <c r="G42" t="s">
-        <v>554</v>
+        <v>486</v>
       </c>
       <c r="H42" t="s">
-        <v>778</v>
+        <v>704</v>
       </c>
       <c r="I42" t="s">
-        <v>779</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4313,22 +4313,22 @@
         <v>244</v>
       </c>
       <c r="D43" t="s">
-        <v>344</v>
+        <v>875</v>
       </c>
       <c r="E43" t="s">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="F43" t="s">
-        <v>555</v>
+        <v>487</v>
       </c>
       <c r="G43" t="s">
-        <v>556</v>
+        <v>488</v>
       </c>
       <c r="H43" t="s">
-        <v>780</v>
+        <v>706</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>781</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4342,22 +4342,22 @@
         <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>345</v>
+        <v>489</v>
       </c>
       <c r="E44" t="s">
-        <v>557</v>
+        <v>489</v>
       </c>
       <c r="F44" t="s">
-        <v>558</v>
+        <v>876</v>
       </c>
       <c r="G44" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="H44" t="s">
-        <v>782</v>
+        <v>708</v>
       </c>
       <c r="I44" t="s">
-        <v>783</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4371,22 +4371,22 @@
         <v>246</v>
       </c>
       <c r="D45" t="s">
-        <v>346</v>
+        <v>878</v>
       </c>
       <c r="E45" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="F45" t="s">
-        <v>561</v>
+        <v>877</v>
       </c>
       <c r="G45" t="s">
-        <v>562</v>
+        <v>492</v>
       </c>
       <c r="H45" t="s">
-        <v>784</v>
+        <v>710</v>
       </c>
       <c r="I45" t="s">
-        <v>785</v>
+        <v>711</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4400,22 +4400,22 @@
         <v>247</v>
       </c>
       <c r="D46" t="s">
-        <v>347</v>
+        <v>880</v>
       </c>
       <c r="E46" t="s">
-        <v>563</v>
+        <v>493</v>
       </c>
       <c r="F46" t="s">
-        <v>564</v>
+        <v>879</v>
       </c>
       <c r="G46" t="s">
-        <v>565</v>
+        <v>494</v>
       </c>
       <c r="H46" t="s">
-        <v>786</v>
+        <v>712</v>
       </c>
       <c r="I46" t="s">
-        <v>787</v>
+        <v>713</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4429,22 +4429,22 @@
         <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>348</v>
+        <v>882</v>
       </c>
       <c r="E47" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="F47" t="s">
-        <v>567</v>
+        <v>881</v>
       </c>
       <c r="G47" t="s">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="H47" t="s">
-        <v>788</v>
+        <v>714</v>
       </c>
       <c r="I47" t="s">
-        <v>789</v>
+        <v>715</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4458,22 +4458,22 @@
         <v>249</v>
       </c>
       <c r="D48" t="s">
-        <v>349</v>
+        <v>883</v>
       </c>
       <c r="E48" t="s">
-        <v>569</v>
+        <v>497</v>
       </c>
       <c r="F48" t="s">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="G48" t="s">
-        <v>571</v>
+        <v>499</v>
       </c>
       <c r="H48" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>791</v>
+        <v>717</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4487,22 +4487,22 @@
         <v>250</v>
       </c>
       <c r="D49" t="s">
-        <v>350</v>
+        <v>884</v>
       </c>
       <c r="E49" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="F49" t="s">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="G49" t="s">
-        <v>573</v>
+        <v>501</v>
       </c>
       <c r="H49" t="s">
-        <v>793</v>
+        <v>719</v>
       </c>
       <c r="I49" t="s">
-        <v>792</v>
+        <v>718</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4516,22 +4516,22 @@
         <v>251</v>
       </c>
       <c r="D50" t="s">
-        <v>351</v>
+        <v>885</v>
       </c>
       <c r="E50" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="F50" t="s">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="G50" t="s">
-        <v>575</v>
+        <v>503</v>
       </c>
       <c r="H50" t="s">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="I50" t="s">
-        <v>795</v>
+        <v>721</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4545,22 +4545,22 @@
         <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>352</v>
+        <v>886</v>
       </c>
       <c r="E51" t="s">
-        <v>576</v>
+        <v>504</v>
       </c>
       <c r="F51" t="s">
-        <v>577</v>
+        <v>505</v>
       </c>
       <c r="G51" t="s">
-        <v>578</v>
+        <v>506</v>
       </c>
       <c r="H51" t="s">
-        <v>796</v>
+        <v>722</v>
       </c>
       <c r="I51" t="s">
-        <v>797</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4574,22 +4574,22 @@
         <v>253</v>
       </c>
       <c r="D52" t="s">
-        <v>353</v>
+        <v>887</v>
       </c>
       <c r="E52" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
       <c r="F52" t="s">
-        <v>579</v>
+        <v>507</v>
       </c>
       <c r="G52" t="s">
-        <v>580</v>
+        <v>508</v>
       </c>
       <c r="H52" t="s">
-        <v>798</v>
+        <v>724</v>
       </c>
       <c r="I52" t="s">
-        <v>799</v>
+        <v>725</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4603,22 +4603,22 @@
         <v>254</v>
       </c>
       <c r="D53" t="s">
-        <v>354</v>
+        <v>888</v>
       </c>
       <c r="E53" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
       <c r="F53" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="G53" t="s">
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="H53" t="s">
-        <v>800</v>
+        <v>726</v>
       </c>
       <c r="I53" t="s">
-        <v>801</v>
+        <v>727</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4632,22 +4632,22 @@
         <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>355</v>
+        <v>889</v>
       </c>
       <c r="E54" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="F54" t="s">
-        <v>583</v>
+        <v>511</v>
       </c>
       <c r="G54" t="s">
-        <v>584</v>
+        <v>512</v>
       </c>
       <c r="H54" t="s">
-        <v>802</v>
+        <v>728</v>
       </c>
       <c r="I54" t="s">
-        <v>803</v>
+        <v>729</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4661,22 +4661,22 @@
         <v>256</v>
       </c>
       <c r="D55" t="s">
-        <v>356</v>
+        <v>890</v>
       </c>
       <c r="E55" t="s">
-        <v>585</v>
+        <v>513</v>
       </c>
       <c r="F55" t="s">
-        <v>586</v>
+        <v>514</v>
       </c>
       <c r="G55" t="s">
-        <v>587</v>
+        <v>515</v>
       </c>
       <c r="H55" t="s">
-        <v>804</v>
+        <v>730</v>
       </c>
       <c r="I55" t="s">
-        <v>805</v>
+        <v>731</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4690,22 +4690,22 @@
         <v>257</v>
       </c>
       <c r="D56" t="s">
-        <v>357</v>
+        <v>891</v>
       </c>
       <c r="E56" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
       <c r="F56" t="s">
-        <v>588</v>
+        <v>516</v>
       </c>
       <c r="G56" t="s">
-        <v>589</v>
+        <v>517</v>
       </c>
       <c r="H56" t="s">
-        <v>806</v>
+        <v>732</v>
       </c>
       <c r="I56" t="s">
-        <v>807</v>
+        <v>733</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4719,22 +4719,22 @@
         <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>358</v>
+        <v>893</v>
       </c>
       <c r="E57" t="s">
-        <v>590</v>
+        <v>518</v>
       </c>
       <c r="F57" t="s">
-        <v>591</v>
+        <v>892</v>
       </c>
       <c r="G57" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
       <c r="H57" t="s">
-        <v>808</v>
+        <v>734</v>
       </c>
       <c r="I57" t="s">
-        <v>809</v>
+        <v>735</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4748,22 +4748,22 @@
         <v>259</v>
       </c>
       <c r="D58" t="s">
-        <v>359</v>
+        <v>895</v>
       </c>
       <c r="E58" t="s">
-        <v>593</v>
+        <v>520</v>
       </c>
       <c r="F58" t="s">
-        <v>594</v>
+        <v>894</v>
       </c>
       <c r="G58" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="H58" t="s">
-        <v>810</v>
+        <v>736</v>
       </c>
       <c r="I58" t="s">
-        <v>811</v>
+        <v>737</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4777,22 +4777,22 @@
         <v>260</v>
       </c>
       <c r="D59" t="s">
-        <v>360</v>
+        <v>896</v>
       </c>
       <c r="E59" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="F59" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="G59" t="s">
-        <v>598</v>
+        <v>524</v>
       </c>
       <c r="H59" t="s">
-        <v>812</v>
+        <v>738</v>
       </c>
       <c r="I59" t="s">
-        <v>813</v>
+        <v>739</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4806,22 +4806,22 @@
         <v>261</v>
       </c>
       <c r="D60" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="E60" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="F60" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="G60" t="s">
-        <v>600</v>
+        <v>526</v>
       </c>
       <c r="H60" t="s">
-        <v>814</v>
+        <v>740</v>
       </c>
       <c r="I60" t="s">
-        <v>815</v>
+        <v>741</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4835,22 +4835,22 @@
         <v>262</v>
       </c>
       <c r="D61" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="E61" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="F61" t="s">
-        <v>602</v>
+        <v>528</v>
       </c>
       <c r="G61" t="s">
-        <v>603</v>
+        <v>529</v>
       </c>
       <c r="H61" t="s">
-        <v>816</v>
+        <v>742</v>
       </c>
       <c r="I61" t="s">
-        <v>817</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4864,22 +4864,22 @@
         <v>263</v>
       </c>
       <c r="D62" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="E62" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="F62" t="s">
-        <v>604</v>
+        <v>530</v>
       </c>
       <c r="G62" t="s">
-        <v>605</v>
+        <v>531</v>
       </c>
       <c r="H62" t="s">
-        <v>818</v>
+        <v>744</v>
       </c>
       <c r="I62" t="s">
-        <v>819</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4893,22 +4893,22 @@
         <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="E63" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
       <c r="F63" t="s">
-        <v>606</v>
+        <v>532</v>
       </c>
       <c r="G63" t="s">
-        <v>607</v>
+        <v>533</v>
       </c>
       <c r="H63" t="s">
-        <v>820</v>
+        <v>746</v>
       </c>
       <c r="I63" t="s">
-        <v>821</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4922,22 +4922,22 @@
         <v>265</v>
       </c>
       <c r="D64" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="E64" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="F64" t="s">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="G64" t="s">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="H64" t="s">
-        <v>822</v>
+        <v>748</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>823</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4954,19 +4954,19 @@
         <v>167</v>
       </c>
       <c r="E65" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="F65" t="s">
-        <v>611</v>
+        <v>537</v>
       </c>
       <c r="G65" t="s">
-        <v>612</v>
+        <v>538</v>
       </c>
       <c r="H65" t="s">
-        <v>824</v>
+        <v>750</v>
       </c>
       <c r="I65" t="s">
-        <v>825</v>
+        <v>751</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4983,19 +4983,19 @@
         <v>166</v>
       </c>
       <c r="E66" t="s">
-        <v>613</v>
+        <v>539</v>
       </c>
       <c r="F66" t="s">
-        <v>614</v>
+        <v>540</v>
       </c>
       <c r="G66" t="s">
-        <v>615</v>
+        <v>541</v>
       </c>
       <c r="H66" t="s">
-        <v>826</v>
+        <v>752</v>
       </c>
       <c r="I66" t="s">
-        <v>827</v>
+        <v>753</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -5009,22 +5009,22 @@
         <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="E67" t="s">
-        <v>616</v>
+        <v>542</v>
       </c>
       <c r="F67" t="s">
-        <v>617</v>
+        <v>543</v>
       </c>
       <c r="G67" t="s">
-        <v>618</v>
+        <v>544</v>
       </c>
       <c r="H67" t="s">
-        <v>828</v>
+        <v>754</v>
       </c>
       <c r="I67" t="s">
-        <v>829</v>
+        <v>755</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -5038,22 +5038,22 @@
         <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="E68" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="F68" t="s">
-        <v>619</v>
+        <v>545</v>
       </c>
       <c r="G68" t="s">
-        <v>620</v>
+        <v>546</v>
       </c>
       <c r="H68" t="s">
-        <v>830</v>
+        <v>756</v>
       </c>
       <c r="I68" t="s">
-        <v>831</v>
+        <v>757</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5067,22 +5067,22 @@
         <v>270</v>
       </c>
       <c r="D69" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="E69" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="F69" t="s">
-        <v>621</v>
+        <v>547</v>
       </c>
       <c r="G69" t="s">
-        <v>622</v>
+        <v>548</v>
       </c>
       <c r="H69" t="s">
-        <v>832</v>
+        <v>758</v>
       </c>
       <c r="I69" t="s">
-        <v>833</v>
+        <v>759</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5096,22 +5096,22 @@
         <v>271</v>
       </c>
       <c r="D70" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="E70" t="s">
-        <v>623</v>
+        <v>549</v>
       </c>
       <c r="F70" t="s">
-        <v>624</v>
+        <v>550</v>
       </c>
       <c r="G70" t="s">
-        <v>625</v>
+        <v>551</v>
       </c>
       <c r="H70" t="s">
-        <v>834</v>
+        <v>760</v>
       </c>
       <c r="I70" t="s">
-        <v>835</v>
+        <v>761</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -5125,22 +5125,22 @@
         <v>272</v>
       </c>
       <c r="D71" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="E71" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="F71" t="s">
-        <v>626</v>
+        <v>552</v>
       </c>
       <c r="G71" t="s">
-        <v>627</v>
+        <v>553</v>
       </c>
       <c r="H71" t="s">
-        <v>836</v>
+        <v>762</v>
       </c>
       <c r="I71" t="s">
-        <v>837</v>
+        <v>763</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -5154,22 +5154,22 @@
         <v>273</v>
       </c>
       <c r="D72" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="E72" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="F72" t="s">
-        <v>628</v>
+        <v>554</v>
       </c>
       <c r="G72" t="s">
-        <v>629</v>
+        <v>555</v>
       </c>
       <c r="H72" t="s">
-        <v>838</v>
+        <v>764</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>839</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -5186,19 +5186,19 @@
         <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
       <c r="F73" t="s">
-        <v>630</v>
+        <v>556</v>
       </c>
       <c r="G73" t="s">
-        <v>631</v>
+        <v>557</v>
       </c>
       <c r="H73" t="s">
-        <v>840</v>
+        <v>766</v>
       </c>
       <c r="I73" t="s">
-        <v>841</v>
+        <v>767</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -5212,22 +5212,22 @@
         <v>276</v>
       </c>
       <c r="D74" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="E74" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="F74" t="s">
-        <v>632</v>
+        <v>558</v>
       </c>
       <c r="G74" t="s">
-        <v>633</v>
+        <v>559</v>
       </c>
       <c r="H74" t="s">
-        <v>842</v>
+        <v>768</v>
       </c>
       <c r="I74" t="s">
-        <v>843</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -5241,22 +5241,22 @@
         <v>277</v>
       </c>
       <c r="D75" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="E75" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>560</v>
       </c>
       <c r="G75" t="s">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="H75" t="s">
-        <v>844</v>
+        <v>770</v>
       </c>
       <c r="I75" t="s">
-        <v>845</v>
+        <v>771</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -5270,22 +5270,22 @@
         <v>278</v>
       </c>
       <c r="D76" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="E76" t="s">
-        <v>636</v>
+        <v>562</v>
       </c>
       <c r="F76" t="s">
-        <v>637</v>
+        <v>563</v>
       </c>
       <c r="G76" t="s">
-        <v>638</v>
+        <v>564</v>
       </c>
       <c r="H76" t="s">
-        <v>846</v>
+        <v>772</v>
       </c>
       <c r="I76" t="s">
-        <v>847</v>
+        <v>773</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -5299,22 +5299,22 @@
         <v>279</v>
       </c>
       <c r="D77" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="E77" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="F77" t="s">
-        <v>639</v>
+        <v>565</v>
       </c>
       <c r="G77" t="s">
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="H77" t="s">
-        <v>848</v>
+        <v>774</v>
       </c>
       <c r="I77" t="s">
-        <v>849</v>
+        <v>775</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -5328,22 +5328,22 @@
         <v>280</v>
       </c>
       <c r="D78" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="E78" t="s">
-        <v>641</v>
+        <v>567</v>
       </c>
       <c r="F78" t="s">
-        <v>642</v>
+        <v>568</v>
       </c>
       <c r="G78" t="s">
-        <v>643</v>
+        <v>569</v>
       </c>
       <c r="H78" t="s">
-        <v>850</v>
+        <v>776</v>
       </c>
       <c r="I78" t="s">
-        <v>851</v>
+        <v>777</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -5357,22 +5357,22 @@
         <v>281</v>
       </c>
       <c r="D79" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>644</v>
+        <v>570</v>
       </c>
       <c r="F79" t="s">
-        <v>645</v>
+        <v>571</v>
       </c>
       <c r="G79" t="s">
-        <v>646</v>
+        <v>572</v>
       </c>
       <c r="H79" t="s">
-        <v>852</v>
+        <v>778</v>
       </c>
       <c r="I79" t="s">
-        <v>853</v>
+        <v>779</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -5386,22 +5386,22 @@
         <v>282</v>
       </c>
       <c r="D80" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="E80" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="F80" t="s">
-        <v>647</v>
+        <v>573</v>
       </c>
       <c r="G80" t="s">
-        <v>648</v>
+        <v>574</v>
       </c>
       <c r="H80" t="s">
-        <v>854</v>
+        <v>780</v>
       </c>
       <c r="I80" t="s">
-        <v>855</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -5418,19 +5418,19 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>649</v>
+        <v>575</v>
       </c>
       <c r="F81" t="s">
-        <v>650</v>
+        <v>576</v>
       </c>
       <c r="G81" t="s">
-        <v>651</v>
+        <v>577</v>
       </c>
       <c r="H81" t="s">
-        <v>856</v>
+        <v>782</v>
       </c>
       <c r="I81" t="s">
-        <v>857</v>
+        <v>783</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5444,22 +5444,22 @@
         <v>284</v>
       </c>
       <c r="D82" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="E82" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="F82" t="s">
-        <v>652</v>
+        <v>578</v>
       </c>
       <c r="G82" t="s">
-        <v>653</v>
+        <v>579</v>
       </c>
       <c r="H82" t="s">
-        <v>858</v>
+        <v>784</v>
       </c>
       <c r="I82" t="s">
-        <v>859</v>
+        <v>785</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5473,22 +5473,22 @@
         <v>285</v>
       </c>
       <c r="D83" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="E83" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="F83" t="s">
-        <v>654</v>
+        <v>580</v>
       </c>
       <c r="G83" t="s">
-        <v>655</v>
+        <v>581</v>
       </c>
       <c r="H83" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="I83" t="s">
-        <v>861</v>
+        <v>787</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5502,22 +5502,22 @@
         <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="E84" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="F84" t="s">
-        <v>656</v>
+        <v>582</v>
       </c>
       <c r="G84" t="s">
-        <v>657</v>
+        <v>583</v>
       </c>
       <c r="H84" t="s">
-        <v>862</v>
+        <v>788</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>863</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5534,19 +5534,19 @@
         <v>187</v>
       </c>
       <c r="E85" t="s">
-        <v>658</v>
+        <v>584</v>
       </c>
       <c r="F85" t="s">
-        <v>659</v>
+        <v>585</v>
       </c>
       <c r="G85" t="s">
-        <v>660</v>
+        <v>586</v>
       </c>
       <c r="H85" t="s">
-        <v>864</v>
+        <v>790</v>
       </c>
       <c r="I85" t="s">
-        <v>865</v>
+        <v>791</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5560,22 +5560,22 @@
         <v>288</v>
       </c>
       <c r="D86" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E86" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="F86" t="s">
-        <v>661</v>
+        <v>587</v>
       </c>
       <c r="G86" t="s">
-        <v>662</v>
+        <v>588</v>
       </c>
       <c r="H86" t="s">
-        <v>867</v>
+        <v>793</v>
       </c>
       <c r="I86" t="s">
-        <v>866</v>
+        <v>792</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5589,22 +5589,22 @@
         <v>289</v>
       </c>
       <c r="D87" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="E87" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="F87" t="s">
-        <v>663</v>
+        <v>589</v>
       </c>
       <c r="G87" t="s">
-        <v>664</v>
+        <v>590</v>
       </c>
       <c r="H87" t="s">
-        <v>868</v>
+        <v>794</v>
       </c>
       <c r="I87" t="s">
-        <v>869</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5618,22 +5618,22 @@
         <v>290</v>
       </c>
       <c r="D88" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="E88" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="F88" t="s">
-        <v>665</v>
+        <v>591</v>
       </c>
       <c r="G88" t="s">
-        <v>666</v>
+        <v>592</v>
       </c>
       <c r="H88" t="s">
-        <v>870</v>
+        <v>796</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>871</v>
+        <v>797</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5647,22 +5647,22 @@
         <v>291</v>
       </c>
       <c r="D89" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E89" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="F89" t="s">
-        <v>667</v>
+        <v>593</v>
       </c>
       <c r="G89" t="s">
-        <v>668</v>
+        <v>594</v>
       </c>
       <c r="H89" t="s">
-        <v>872</v>
+        <v>798</v>
       </c>
       <c r="I89" t="s">
-        <v>873</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5676,22 +5676,22 @@
         <v>292</v>
       </c>
       <c r="D90" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="E90" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="F90" t="s">
-        <v>669</v>
+        <v>595</v>
       </c>
       <c r="G90" t="s">
-        <v>670</v>
+        <v>596</v>
       </c>
       <c r="H90" t="s">
-        <v>874</v>
+        <v>800</v>
       </c>
       <c r="I90" t="s">
-        <v>875</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5705,22 +5705,22 @@
         <v>293</v>
       </c>
       <c r="D91" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="E91" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="F91" t="s">
-        <v>671</v>
+        <v>597</v>
       </c>
       <c r="G91" t="s">
-        <v>672</v>
+        <v>598</v>
       </c>
       <c r="H91" t="s">
-        <v>876</v>
+        <v>802</v>
       </c>
       <c r="I91" t="s">
-        <v>877</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5734,22 +5734,22 @@
         <v>294</v>
       </c>
       <c r="D92" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="E92" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="F92" t="s">
-        <v>673</v>
+        <v>599</v>
       </c>
       <c r="G92" t="s">
-        <v>674</v>
+        <v>600</v>
       </c>
       <c r="H92" t="s">
-        <v>878</v>
+        <v>804</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>879</v>
+        <v>805</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5763,22 +5763,22 @@
         <v>295</v>
       </c>
       <c r="D93" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="E93" t="s">
-        <v>675</v>
+        <v>601</v>
       </c>
       <c r="F93" t="s">
-        <v>676</v>
+        <v>602</v>
       </c>
       <c r="G93" t="s">
-        <v>677</v>
+        <v>603</v>
       </c>
       <c r="H93" t="s">
-        <v>880</v>
+        <v>806</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>881</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5792,22 +5792,22 @@
         <v>296</v>
       </c>
       <c r="D94" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="E94" t="s">
-        <v>678</v>
+        <v>604</v>
       </c>
       <c r="F94" t="s">
-        <v>679</v>
+        <v>605</v>
       </c>
       <c r="G94" t="s">
-        <v>680</v>
+        <v>606</v>
       </c>
       <c r="H94" t="s">
-        <v>882</v>
+        <v>808</v>
       </c>
       <c r="I94" t="s">
-        <v>883</v>
+        <v>809</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5821,22 +5821,22 @@
         <v>297</v>
       </c>
       <c r="D95" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="E95" t="s">
-        <v>681</v>
+        <v>607</v>
       </c>
       <c r="F95" t="s">
-        <v>682</v>
+        <v>608</v>
       </c>
       <c r="G95" t="s">
-        <v>683</v>
+        <v>609</v>
       </c>
       <c r="H95" t="s">
-        <v>884</v>
+        <v>810</v>
       </c>
       <c r="I95" t="s">
-        <v>885</v>
+        <v>811</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5850,22 +5850,22 @@
         <v>298</v>
       </c>
       <c r="D96" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="E96" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="F96" t="s">
-        <v>684</v>
+        <v>610</v>
       </c>
       <c r="G96" t="s">
-        <v>685</v>
+        <v>611</v>
       </c>
       <c r="H96" t="s">
-        <v>886</v>
+        <v>812</v>
       </c>
       <c r="I96" t="s">
-        <v>887</v>
+        <v>813</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5879,22 +5879,22 @@
         <v>299</v>
       </c>
       <c r="D97" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="E97" t="s">
-        <v>686</v>
+        <v>612</v>
       </c>
       <c r="F97" t="s">
-        <v>687</v>
+        <v>613</v>
       </c>
       <c r="G97" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="H97" t="s">
-        <v>888</v>
+        <v>814</v>
       </c>
       <c r="I97" t="s">
-        <v>889</v>
+        <v>815</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5908,22 +5908,22 @@
         <v>300</v>
       </c>
       <c r="D98" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="E98" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="F98" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="G98" t="s">
-        <v>690</v>
+        <v>616</v>
       </c>
       <c r="H98" t="s">
-        <v>890</v>
+        <v>816</v>
       </c>
       <c r="I98" t="s">
-        <v>891</v>
+        <v>817</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5937,22 +5937,22 @@
         <v>301</v>
       </c>
       <c r="D99" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="E99" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="F99" t="s">
-        <v>691</v>
+        <v>617</v>
       </c>
       <c r="G99" t="s">
-        <v>692</v>
+        <v>618</v>
       </c>
       <c r="H99" t="s">
-        <v>892</v>
+        <v>818</v>
       </c>
       <c r="I99" t="s">
-        <v>893</v>
+        <v>819</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5966,22 +5966,22 @@
         <v>302</v>
       </c>
       <c r="D100" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="E100" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="F100" t="s">
-        <v>693</v>
+        <v>619</v>
       </c>
       <c r="G100" t="s">
-        <v>694</v>
+        <v>620</v>
       </c>
       <c r="H100" t="s">
-        <v>894</v>
+        <v>820</v>
       </c>
       <c r="I100" t="s">
-        <v>895</v>
+        <v>821</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5995,22 +5995,22 @@
         <v>303</v>
       </c>
       <c r="D101" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="E101" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="F101" t="s">
-        <v>695</v>
+        <v>621</v>
       </c>
       <c r="G101" t="s">
-        <v>696</v>
+        <v>622</v>
       </c>
       <c r="H101" t="s">
-        <v>896</v>
+        <v>822</v>
       </c>
       <c r="I101" t="s">
-        <v>897</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
